--- a/spliced/falling/2023-03-25_17-59-08/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-08/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>0.06688974797725671</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.882777214050291</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.883625364303589</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.771220207214356</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0070249503478407</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.098502017557621</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.1296561509370803</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-59-08/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-08/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.799852418899536</v>
+        <v>-2.778316736221313</v>
       </c>
       <c r="D2" t="n">
-        <v>6.562464380264283</v>
+        <v>6.619067668914795</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.04518318772316</v>
+        <v>-0.6493567824363708</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0303905457258224</v>
+        <v>-0.0410806871950626</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0251981914043426</v>
+        <v>-0.0163406450301408</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0348193198442459</v>
+        <v>-0.015118914656341</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.921730804443359</v>
+        <v>-2.981808757781982</v>
       </c>
       <c r="D3" t="n">
-        <v>6.461819076538085</v>
+        <v>6.65326156616211</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.420121455192567</v>
+        <v>-0.8340041637420658</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0346666015684604</v>
+        <v>-0.022754730656743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0082466807216405</v>
+        <v>-0.0708603709936142</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0271835029125213</v>
+        <v>-0.0030543261673301</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.64505925178528</v>
+        <v>-2.862793350219726</v>
       </c>
       <c r="D4" t="n">
-        <v>6.319645357131958</v>
+        <v>6.595655870437622</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.137768888473512</v>
+        <v>-1.086881220340729</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1174388453364372</v>
+        <v>0.0134390350431203</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.140499010682106</v>
+        <v>-0.0337503030896186</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1302670091390609</v>
+        <v>0.0230601634830236</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.560260105133056</v>
+        <v>-2.658387470245361</v>
       </c>
       <c r="D5" t="n">
-        <v>5.857164859771728</v>
+        <v>6.523494625091553</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.574245262145996</v>
+        <v>-1.100642728805541</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1805106848478317</v>
+        <v>-0.0311541277915239</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.266184538602829</v>
+        <v>-0.0189368221908807</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0308486949652433</v>
+        <v>0.0268780700862407</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.488956928253174</v>
+        <v>-2.623731708526611</v>
       </c>
       <c r="D6" t="n">
-        <v>5.242366313934325</v>
+        <v>6.502191925048828</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.541561126708986</v>
+        <v>-0.9057361066341401</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1626428663730621</v>
+        <v>-0.008399397134780801</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.379652738571167</v>
+        <v>-0.0177150927484035</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06261368840932841</v>
+        <v>0.0058032199740409</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.976312160491945</v>
+        <v>-2.912428379058838</v>
       </c>
       <c r="D7" t="n">
-        <v>4.683113002777098</v>
+        <v>6.643356800079346</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.901833915710452</v>
+        <v>-0.9624049067497252</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0490219369530677</v>
+        <v>-0.0368046313524246</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1159116774797439</v>
+        <v>-0.0198531206697225</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3532328307628631</v>
+        <v>0.0143553335219621</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.27849884033203</v>
+        <v>-2.799852418899536</v>
       </c>
       <c r="D8" t="n">
-        <v>4.203760409355163</v>
+        <v>6.562464380264283</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.137033796310429</v>
+        <v>-1.04518318772316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0462730415165424</v>
+        <v>-0.0303905457258224</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1301143020391464</v>
+        <v>0.0251981914043426</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0424551330506801</v>
+        <v>-0.0348193198442459</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.059399700164795</v>
+        <v>-2.921730804443359</v>
       </c>
       <c r="D9" t="n">
-        <v>3.346987175941464</v>
+        <v>6.461819076538085</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.092747974395745</v>
+        <v>-1.420121455192567</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1779145002365112</v>
+        <v>0.0346666015684604</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9054549932479858</v>
+        <v>0.0082466807216405</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.665982246398926</v>
+        <v>-0.0271835029125213</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.056312322616568</v>
+        <v>-3.64505925178528</v>
       </c>
       <c r="D10" t="n">
-        <v>2.196766674518599</v>
+        <v>6.319645357131958</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6121338844299181</v>
+        <v>-2.137768888473512</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7797694802284241</v>
+        <v>0.1174388453364372</v>
       </c>
       <c r="G10" t="n">
-        <v>2.544864654541016</v>
+        <v>-0.140499010682106</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.356246471405029</v>
+        <v>0.1302670091390609</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.137712478637695</v>
+        <v>-3.560260105133056</v>
       </c>
       <c r="D11" t="n">
-        <v>9.979324340820312</v>
+        <v>5.857164859771728</v>
       </c>
       <c r="E11" t="n">
-        <v>6.995259761810303</v>
+        <v>-2.574245262145996</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.158047795295715</v>
+        <v>-0.1805106848478317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.633009135723114</v>
+        <v>-0.266184538602829</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.008691191673279</v>
+        <v>-0.0308486949652433</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-5.27030158042908</v>
+        <v>-3.488956928253174</v>
       </c>
       <c r="D12" t="n">
-        <v>6.398296785354612</v>
+        <v>5.242366313934325</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.064579951763156</v>
+        <v>-3.541561126708986</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3301726579666137</v>
+        <v>-0.1626428663730621</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.484847068786621</v>
+        <v>-0.379652738571167</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2561052441596985</v>
+        <v>0.06261368840932841</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9.112322330474868</v>
+        <v>-3.976312160491945</v>
       </c>
       <c r="D13" t="n">
-        <v>4.601176929473875</v>
+        <v>4.683113002777098</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.501108241081238</v>
+        <v>-4.901833915710452</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09498954564332961</v>
+        <v>0.0490219369530677</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5517640113830566</v>
+        <v>-0.1159116774797439</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8726209998130798</v>
+        <v>0.3532328307628631</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.462616539001423</v>
+        <v>-4.27849884033203</v>
       </c>
       <c r="D14" t="n">
-        <v>5.74287872314454</v>
+        <v>4.203760409355163</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.951083517074581</v>
+        <v>-6.137033796310429</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1779145002365112</v>
+        <v>0.0462730415165424</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2057088762521743</v>
+        <v>-0.1301143020391464</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0172569435089826</v>
+        <v>0.0424551330506801</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.208791923522958</v>
+        <v>-4.059399700164795</v>
       </c>
       <c r="D15" t="n">
-        <v>6.954292774200445</v>
+        <v>3.346987175941464</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.887256383895876</v>
+        <v>-6.092747974395745</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3599523603916168</v>
+        <v>0.1779145002365112</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3149010241031647</v>
+        <v>0.9054549932479858</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.7423539757728577</v>
+        <v>-1.665982246398926</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.056319236755372</v>
+        <v>-4.056312322616568</v>
       </c>
       <c r="D16" t="n">
-        <v>5.56828045845031</v>
+        <v>2.196766674518599</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.578303456306456</v>
+        <v>-0.6121338844299181</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.022754730656743</v>
+        <v>-0.7797694802284241</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0948368310928344</v>
+        <v>2.544864654541016</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1800525337457656</v>
+        <v>-3.356246471405029</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.340787315368646</v>
+        <v>1.137712478637695</v>
       </c>
       <c r="D17" t="n">
-        <v>4.649471092224126</v>
+        <v>9.979324340820312</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.28086395263672</v>
+        <v>6.995259761810303</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0279470849782228</v>
+        <v>-1.158047795295715</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1127046346664428</v>
+        <v>0.633009135723114</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2240348309278488</v>
+        <v>-1.008691191673279</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.86997218132019</v>
+        <v>-5.27030158042908</v>
       </c>
       <c r="D18" t="n">
-        <v>6.004907035827637</v>
+        <v>6.398296785354612</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.588819026947022</v>
+        <v>-1.064579951763156</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.07605272531509399</v>
+        <v>-0.3301726579666137</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1412625908851623</v>
+        <v>-2.484847068786621</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1592831164598465</v>
+        <v>0.2561052441596985</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.657377624511718</v>
+        <v>9.112322330474868</v>
       </c>
       <c r="D19" t="n">
-        <v>6.300898742675783</v>
+        <v>4.601176929473875</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.739501070976257</v>
+        <v>-2.501108241081238</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0526871271431446</v>
+        <v>0.09498954564332961</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1530217379331588</v>
+        <v>0.5517640113830566</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0560468845069408</v>
+        <v>0.8726209998130798</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.416164684295658</v>
+        <v>5.462616539001423</v>
       </c>
       <c r="D20" t="n">
-        <v>6.649864673614499</v>
+        <v>5.74287872314454</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.776257181167603</v>
+        <v>-1.951083517074581</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0149661982432007</v>
+        <v>0.1779145002365112</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0545197241008281</v>
+        <v>-0.2057088762521743</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.08109235763549801</v>
+        <v>-0.0172569435089826</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>3.208791923522958</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.954292774200445</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.887256383895876</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.3599523603916168</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.3149010241031647</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.7423539757728577</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4.056319236755372</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.56828045845031</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.578303456306456</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.022754730656743</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0948368310928344</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1800525337457656</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3.340787315368646</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.649471092224126</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.28086395263672</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.0279470849782228</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1127046346664428</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2240348309278488</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.86997218132019</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.004907035827637</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.588819026947022</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.07605272531509399</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.1412625908851623</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1592831164598465</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.657377624511718</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.300898742675783</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.739501070976257</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0526871271431446</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.1530217379331588</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0560468845069408</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.416164684295658</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.649864673614499</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.776257181167603</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0149661982432007</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0545197241008281</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.08109235763549801</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>2.375874519348145</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>6.059439659118652</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E27" t="n">
         <v>-1.791717648506165</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F27" t="n">
         <v>-0.0088575463742017</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G27" t="n">
         <v>0.0604756586253643</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>0.06688974797725671</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.882777214050291</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.883625364303589</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.771220207214356</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0070249503478407</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.098502017557621</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1296561509370803</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2.030305290222169</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.322917270660403</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.870007395744325</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0024434609804302</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0125227374956011</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0360410511493682</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2.015394306182861</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.204385328292845</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.822170174121856</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.016951510682702</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0704022198915481</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0198531206697225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.990867900848389</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.087325572967529</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.848094010353089</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.00335975876078</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0123700210824608</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0325285755097866</v>
       </c>
     </row>
   </sheetData>
